--- a/downloaded_files/MDPS479_Lecture-35700.xlsx
+++ b/downloaded_files/MDPS479_Lecture-35700.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -280,6 +280,15 @@
   </x:si>
   <x:si>
     <x:t>malak yasser saad ahmed sallam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق قنديل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
   <x:si>
     <x:t>1210095</x:t>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -714,7 +723,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.140625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.960625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1689,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6666656597</x:v>
+        <x:v>45924.8699445949</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1715,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45906.6666656597</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS479_Lecture-35700.xlsx
+++ b/downloaded_files/MDPS479_Lecture-35700.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -280,15 +280,6 @@
   </x:si>
   <x:si>
     <x:t>malak yasser saad ahmed sallam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد فاروق قنديل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
   <x:si>
     <x:t>1210095</x:t>
@@ -413,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -723,7 +714,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.140625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.960625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1698,7 +1689,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45924.8699445949</x:v>
+        <x:v>45906.6666656597</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1715,38 +1706,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45906.6666656597</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS479_Lecture-35700.xlsx
+++ b/downloaded_files/MDPS479_Lecture-35700.xlsx
@@ -51,6 +51,15 @@
     <x:t>Ahmed Marwan Kamel Abd Alaziz</x:t>
   </x:si>
   <x:si>
+    <x:t>1220219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أندرو وليد جرجس كيرلس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew Walid Girgis</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220110</x:t>
   </x:si>
   <x:si>
@@ -91,15 +100,6 @@
   </x:si>
   <x:si>
     <x:t>حسين ياسر محمد ابراهيم صقر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد اشرف وفا محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled ashraf wafa mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210053</x:t>
@@ -714,7 +714,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.140625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.960625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -859,7 +859,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6689769676</x:v>
+        <x:v>45927.4179078704</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -891,7 +891,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6710427431</x:v>
+        <x:v>45906.6689769676</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -923,7 +923,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6794722569</x:v>
+        <x:v>45906.6710427431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -955,7 +955,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6815950231</x:v>
+        <x:v>45906.6794722569</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -983,9 +983,11 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45906.6815950231</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1008,16 +1010,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
+      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45906.6736580671</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>

--- a/downloaded_files/MDPS479_Lecture-35700.xlsx
+++ b/downloaded_files/MDPS479_Lecture-35700.xlsx
@@ -246,15 +246,6 @@
     <x:t>Mohamed Abdelaty Mohamed Abdelaty Atwa</x:t>
   </x:si>
   <x:si>
-    <x:t>1220144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان نزار محمد عباس احمد عبدالشافى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Nezar Mohamed Abbas Ahmed Abdelshafy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210307</x:t>
   </x:si>
   <x:si>
@@ -262,6 +253,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Shady Mahmoud Mohamed Elshagie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Hany Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1210417</x:t>
@@ -1561,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6665929745</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45927.9740179745</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>

--- a/downloaded_files/MDPS479_Lecture-35700.xlsx
+++ b/downloaded_files/MDPS479_Lecture-35700.xlsx
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1210179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أحمد خالد عبد الهادي ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ِAhmed Khaled Abd Al-hady Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210180</x:t>
   </x:si>
   <x:si>
@@ -145,6 +136,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Tamer Hanafy Mahmoud Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن عمرو إبراهيم محمد جميل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman amr</x:t>
   </x:si>
   <x:si>
     <x:t>1210352</x:t>
@@ -795,7 +795,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6665515046</x:v>
+        <x:v>45906.6649607986</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -827,7 +827,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6649607986</x:v>
+        <x:v>45927.4179078704</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -859,7 +859,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4179078704</x:v>
+        <x:v>45906.6689769676</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -891,7 +891,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6689769676</x:v>
+        <x:v>45906.6710427431</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -923,7 +923,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6710427431</x:v>
+        <x:v>45906.6794722569</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -955,7 +955,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6794722569</x:v>
+        <x:v>45906.6815950231</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -983,11 +983,9 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45906.6815950231</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1010,14 +1008,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45906.6759029745</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1049,7 +1049,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6759029745</x:v>
+        <x:v>45906.6753183681</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1081,7 +1081,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6753183681</x:v>
+        <x:v>45906.6768920949</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1113,7 +1113,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6768920949</x:v>
+        <x:v>45906.6670208333</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1145,7 +1145,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6670208333</x:v>
+        <x:v>45906.6672116551</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1177,7 +1177,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6672116551</x:v>
+        <x:v>45928.9334273958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
